--- a/sample/新競艇ロジック.xlsx
+++ b/sample/新競艇ロジック.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/400fb3738f54b8ea/BoatRace/pg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{C25CDE55-000E-4A4F-94B0-6F5F3E499EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{959FB9AF-1C2F-4A5F-9181-B6A2634700E9}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{C25CDE55-000E-4A4F-94B0-6F5F3E499EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A163BD-04F0-4767-9C24-506721FA310C}"/>
   <bookViews>
-    <workbookView xWindow="-1125" yWindow="2940" windowWidth="21600" windowHeight="11385" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="3540" windowWidth="21600" windowHeight="11385" tabRatio="882" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="Sheet4" sheetId="12" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="11" r:id="rId4"/>
     <sheet name="KIMARITE" sheetId="6" r:id="rId5"/>
-    <sheet name="TENJI" sheetId="4" r:id="rId6"/>
-    <sheet name="FORECAST" sheetId="7" r:id="rId7"/>
-    <sheet name="TICKET" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
-    <sheet name="MASTER" sheetId="3" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId6"/>
+    <sheet name="TENJI" sheetId="4" r:id="rId7"/>
+    <sheet name="FORECAST" sheetId="7" r:id="rId8"/>
+    <sheet name="TICKET" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId10"/>
+    <sheet name="MASTER" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="374">
   <si>
     <t>艇番</t>
   </si>
@@ -1771,6 +1772,76 @@
   </si>
   <si>
     <t>6R</t>
+  </si>
+  <si>
+    <t>A列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2604,15 +2675,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2626,6 +2688,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2914,7 +2985,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
@@ -4632,6 +4703,320 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BA65B7-88D2-4A2E-BE43-09D894FEEFB0}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:7" ht="27">
+      <c r="B2" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="109"/>
+      <c r="F2" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="110"/>
+    </row>
+    <row r="3" spans="2:7" ht="54">
+      <c r="B3" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="12">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="95">
+        <v>1</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="95">
+        <v>2</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="12">
+        <v>6</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="95">
+        <v>1</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="12">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="95">
+        <v>1</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="12">
+        <v>6</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="95">
+        <v>1</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B15" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="97">
+        <v>4</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBCA43F-CDEF-4BFF-B0EE-ACEB59431B4C}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E20"/>
@@ -4950,37 +5335,37 @@
         <f>LEFT(C121,3)</f>
         <v>埼玉/</v>
       </c>
-      <c r="J2" s="105" t="s">
+      <c r="J2" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="105" t="s">
+      <c r="K2" s="102" t="s">
         <v>273</v>
       </c>
-      <c r="L2" s="105" t="s">
+      <c r="L2" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="M2" s="105" t="s">
+      <c r="M2" s="102" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="102" t="s">
         <v>291</v>
       </c>
-      <c r="O2" s="105" t="s">
+      <c r="O2" s="102" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="105" t="s">
+      <c r="P2" s="102" t="s">
         <v>303</v>
       </c>
-      <c r="Q2" s="105" t="s">
+      <c r="Q2" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="R2" s="105" t="s">
+      <c r="R2" s="102" t="s">
         <v>315</v>
       </c>
-      <c r="S2" s="107" t="s">
+      <c r="S2" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="T2" s="109" t="s">
+      <c r="T2" s="106" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5020,37 +5405,37 @@
         <f>LEFT(C125,3)</f>
         <v>埼玉/</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="102" t="s">
         <v>268</v>
       </c>
-      <c r="K3" s="105" t="s">
+      <c r="K3" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="L3" s="105" t="s">
+      <c r="L3" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="102" t="s">
         <v>286</v>
       </c>
-      <c r="N3" s="105" t="s">
+      <c r="N3" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="O3" s="105" t="s">
+      <c r="O3" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="P3" s="105" t="s">
+      <c r="P3" s="102" t="s">
         <v>304</v>
       </c>
-      <c r="Q3" s="105" t="s">
+      <c r="Q3" s="102" t="s">
         <v>310</v>
       </c>
-      <c r="R3" s="105" t="s">
+      <c r="R3" s="102" t="s">
         <v>316</v>
       </c>
-      <c r="S3" s="107" t="s">
+      <c r="S3" s="104" t="s">
         <v>322</v>
       </c>
-      <c r="T3" s="109" t="s">
+      <c r="T3" s="106" t="s">
         <v>328</v>
       </c>
     </row>
@@ -5090,37 +5475,37 @@
         <f>LEFT(C129,3)</f>
         <v>埼玉/</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="102" t="s">
         <v>275</v>
       </c>
-      <c r="L4" s="105" t="s">
+      <c r="L4" s="102" t="s">
         <v>281</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="102" t="s">
         <v>287</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="102" t="s">
         <v>299</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="102" t="s">
         <v>311</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="104" t="s">
         <v>323</v>
       </c>
-      <c r="T4" s="109" t="s">
+      <c r="T4" s="106" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5160,37 +5545,37 @@
         <f>LEFT(C133,3)</f>
         <v>埼玉/</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="102" t="s">
         <v>270</v>
       </c>
-      <c r="K5" s="105" t="s">
+      <c r="K5" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="L5" s="105" t="s">
+      <c r="L5" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="M5" s="105" t="s">
+      <c r="M5" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="N5" s="105" t="s">
+      <c r="N5" s="102" t="s">
         <v>294</v>
       </c>
-      <c r="O5" s="105" t="s">
+      <c r="O5" s="102" t="s">
         <v>300</v>
       </c>
-      <c r="P5" s="105" t="s">
+      <c r="P5" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="Q5" s="105" t="s">
+      <c r="Q5" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="R5" s="105" t="s">
+      <c r="R5" s="102" t="s">
         <v>318</v>
       </c>
-      <c r="S5" s="107" t="s">
+      <c r="S5" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="106" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5230,37 +5615,37 @@
         <f>LEFT(C137,3)</f>
         <v>埼玉/</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="L6" s="105" t="s">
+      <c r="L6" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="M6" s="105" t="s">
+      <c r="M6" s="102" t="s">
         <v>289</v>
       </c>
-      <c r="N6" s="105" t="s">
+      <c r="N6" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="O6" s="105" t="s">
+      <c r="O6" s="102" t="s">
         <v>301</v>
       </c>
-      <c r="P6" s="105" t="s">
+      <c r="P6" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="Q6" s="105" t="s">
+      <c r="Q6" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="R6" s="105" t="s">
+      <c r="R6" s="102" t="s">
         <v>319</v>
       </c>
-      <c r="S6" s="107" t="s">
+      <c r="S6" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="T6" s="109" t="s">
+      <c r="T6" s="106" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5300,37 +5685,37 @@
         <f>LEFT(C141,3)</f>
         <v>埼玉/</v>
       </c>
-      <c r="J7" s="106" t="s">
+      <c r="J7" s="103" t="s">
         <v>272</v>
       </c>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="103" t="s">
         <v>278</v>
       </c>
-      <c r="L7" s="106" t="s">
+      <c r="L7" s="103" t="s">
         <v>284</v>
       </c>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="103" t="s">
         <v>290</v>
       </c>
-      <c r="N7" s="106" t="s">
+      <c r="N7" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="O7" s="106" t="s">
+      <c r="O7" s="103" t="s">
         <v>302</v>
       </c>
-      <c r="P7" s="106" t="s">
+      <c r="P7" s="103" t="s">
         <v>308</v>
       </c>
-      <c r="Q7" s="106" t="s">
+      <c r="Q7" s="103" t="s">
         <v>314</v>
       </c>
-      <c r="R7" s="106" t="s">
+      <c r="R7" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="S7" s="108" t="s">
+      <c r="S7" s="105" t="s">
         <v>326</v>
       </c>
-      <c r="T7" s="110" t="s">
+      <c r="T7" s="107" t="s">
         <v>332</v>
       </c>
     </row>
@@ -8961,8 +9346,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10072,6 +10457,104 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0116BD53-AAEE-4B7E-9374-14C64AA27CA4}">
+  <dimension ref="B1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:3" ht="19.5" thickBot="1">
+      <c r="B2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="19.5" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9E0B73-476A-418D-BA6D-A006DEB0B8F2}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:V20"/>
@@ -11008,7 +11491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A46C5FC-3058-4CFF-8FDD-8C508C2C865F}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AA16"/>
@@ -11898,7 +12381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CA8FC-645F-4FB7-8703-A2965AF3146F}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H3"/>
@@ -12091,318 +12574,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BA65B7-88D2-4A2E-BE43-09D894FEEFB0}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="B1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:7" ht="27">
-      <c r="B2" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="102" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="102" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="104"/>
-    </row>
-    <row r="3" spans="2:7" ht="54">
-      <c r="B3" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" s="12">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="12">
-        <v>2</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="95">
-        <v>1</v>
-      </c>
-      <c r="G5" s="96" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="12">
-        <v>4</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="12">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="95">
-        <v>2</v>
-      </c>
-      <c r="G7" s="96" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="12">
-        <v>3</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="12">
-        <v>6</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="12">
-        <v>4</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="95">
-        <v>1</v>
-      </c>
-      <c r="G9" s="96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="12">
-        <v>3</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="12">
-        <v>5</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="95">
-        <v>1</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="12">
-        <v>6</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="95">
-        <v>1</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="12">
-        <v>3</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="12">
-        <v>4</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="12">
-        <v>2</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B15" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="14">
-        <v>2</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>217</v>
-      </c>
-      <c r="F15" s="97">
-        <v>4</v>
-      </c>
-      <c r="G15" s="98" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sample/新競艇ロジック.xlsx
+++ b/sample/新競艇ロジック.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/400fb3738f54b8ea/BoatRace/pg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BoatRaceLogic\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{C25CDE55-000E-4A4F-94B0-6F5F3E499EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A163BD-04F0-4767-9C24-506721FA310C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280A2D75-CF5B-4F9D-8C6B-F34B6B902C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="3540" windowWidth="21600" windowHeight="11385" tabRatio="882" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="330" windowWidth="21600" windowHeight="14955" tabRatio="882" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,12 @@
     <sheet name="KIMARITE" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="13" r:id="rId6"/>
     <sheet name="TENJI" sheetId="4" r:id="rId7"/>
-    <sheet name="FORECAST" sheetId="7" r:id="rId8"/>
-    <sheet name="TICKET" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId10"/>
-    <sheet name="MASTER" sheetId="3" r:id="rId11"/>
+    <sheet name="TENJI (2)" sheetId="15" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="14" r:id="rId9"/>
+    <sheet name="FORECAST" sheetId="7" r:id="rId10"/>
+    <sheet name="TICKET" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId12"/>
+    <sheet name="MASTER" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -161,6 +163,122 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>みやざきへるにあ</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{EEC51429-FD27-409F-AD97-AE598BC1C559}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">🎯 この列が意味するもの
+- H列（ST評価）
+→ 攻め気配そのもの（F→負値変換で精度UP）
+- K列（直線評価）
+→ 攻めが届くかどうかの“伸び”
+この2つが揃って初めて
+「攻めが成立する艇」
+として扱える。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1E3B2C1A-D124-4F4B-ACBD-06AC0BF19009}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">🎯 この列が意味するもの
+- 高いほど安定して走れる艇
+- まくり差し・差しの成功率に直結
+- 展開予測で「残す艇」「崩れにくい艇」を判断する基礎になる
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{CE7E34DF-8A70-4655-A974-DC24FE065369}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>🎯 この列が意味するもの
+•  プラス → 展示で上積みがあった艇
+→ 展開予測で“格上げ”候補
+•  マイナス → 展示で評価が落ちた艇
+→ 展開予測で“格下げ”候補
+•  0付近 → 展示で大きな変化なし
+宮崎さんのロジックでは、
+この Q列が 展示タイプ補正（S列） や 展開予測の攻め艇選定 に効いてくる重要な指標になる。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{A03E5F1B-794F-48C0-A144-83D88C52CD1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>🎯 この列の意味
+•  展示の総合力を一つの数値に集約
+•  展開予測の基礎スコアとして使える
+•  展示補正スコア（Q列）や展示タイプ補正（S列）と組み合わせると
+→ “攻め艇” “残す艇” “弱い艇” が明確に分かれる</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{6237920D-FF58-4E7F-8036-8F22E9F6DF62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">🎯 この式のポイント
+- 攻め型判定は O が P より2以上高いとき
+→ ST＋直線が強い艇（5号艇など）
+- 差し型判定は P が O より2以上高いとき
+→ 周回＋周り足が強い艇（3号艇など）
+- 伸び型は直線評価が上位1以内
+→ 6号艇のような典型的伸び型を拾える
+- どれにも当てはまらなければ 0（バランス型）
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -184,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="497">
   <si>
     <t>艇番</t>
   </si>
@@ -1841,6 +1959,675 @@
     <rPh sb="1" eb="2">
       <t>レツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>展示タイム</t>
+  </si>
+  <si>
+    <t>展示タイム場平均差</t>
+  </si>
+  <si>
+    <t>展示タイム評価(1〜5)</t>
+  </si>
+  <si>
+    <t>周り足評価(1〜5)</t>
+  </si>
+  <si>
+    <t>直線評価(1〜5)</t>
+  </si>
+  <si>
+    <t>展示足トータル</t>
+  </si>
+  <si>
+    <t>展示攻めポテンシャル</t>
+  </si>
+  <si>
+    <t>展示タイプ補正</t>
+  </si>
+  <si>
+    <t>展示タイプ名</t>
+  </si>
+  <si>
+    <t>展開キー</t>
+  </si>
+  <si>
+    <t>展開もらい補正</t>
+  </si>
+  <si>
+    <t>最終二次予想スコア</t>
+  </si>
+  <si>
+    <t>A~F列が展示情報をそのまま載せる</t>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>テンジジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G列：～V列は数式を使って算出</t>
+    <rPh sb="5" eb="6">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A～F列は展示情報をそのまま載せる</t>
+  </si>
+  <si>
+    <t>A列：艇番</t>
+  </si>
+  <si>
+    <t>B列：展示タイム</t>
+  </si>
+  <si>
+    <t>C列：ST</t>
+  </si>
+  <si>
+    <t>D列：周回</t>
+  </si>
+  <si>
+    <t>E列：周り足</t>
+  </si>
+  <si>
+    <t>F列：直線</t>
+  </si>
+  <si>
+    <t>G～V列は数式を使って算出</t>
+  </si>
+  <si>
+    <t>I列：展示タイム場平均差</t>
+  </si>
+  <si>
+    <t>J列：展示タイム評価(1〜5)</t>
+  </si>
+  <si>
+    <t>K列：ST評価(1〜5)</t>
+  </si>
+  <si>
+    <t>L列：周回評価(1〜5)</t>
+  </si>
+  <si>
+    <t>M列：周り足評価(1〜5)</t>
+  </si>
+  <si>
+    <t>N列：直線評価(1〜5)</t>
+  </si>
+  <si>
+    <t>O列：展示足トータル</t>
+  </si>
+  <si>
+    <t>P列：展示攻めポテンシャル</t>
+  </si>
+  <si>
+    <t>Q列：展示安定感</t>
+  </si>
+  <si>
+    <t>R列：展示補正スコア</t>
+  </si>
+  <si>
+    <t>S列：展示総合スコア</t>
+  </si>
+  <si>
+    <t>T列：展示タイプ補正</t>
+  </si>
+  <si>
+    <t>U列：展示タイプ名</t>
+  </si>
+  <si>
+    <t>V列：展開キー</t>
+  </si>
+  <si>
+    <t>W列：展開もらい補正</t>
+  </si>
+  <si>
+    <t>X列：最終二次予想スコア</t>
+  </si>
+  <si>
+    <t>=IF(G2&lt;=-0.1, 5, IF(G2&lt;=-0.05, 4, IF(G2&lt;=0.05, 3, IF(G2&lt;=0.1, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(G3&lt;=-0.1, 5, IF(G3&lt;=-0.05, 4, IF(G3&lt;=0.05, 3, IF(G3&lt;=0.1, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(G4&lt;=-0.1, 5, IF(G4&lt;=-0.05, 4, IF(G4&lt;=0.05, 3, IF(G4&lt;=0.1, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(G5&lt;=-0.1, 5, IF(G5&lt;=-0.05, 4, IF(G5&lt;=0.05, 3, IF(G5&lt;=0.1, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(G6&lt;=-0.1, 5, IF(G6&lt;=-0.05, 4, IF(G6&lt;=0.05, 3, IF(G6&lt;=0.1, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(G7&lt;=-0.1, 5, IF(G7&lt;=-0.05, 4, IF(G7&lt;=0.05, 3, IF(G7&lt;=0.1, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(C2&lt;=-0.05, 1, IF(C2&lt;0, 2, IF(C2&lt;=0.05, 5, IF(C2&lt;=0.12, 4, IF(C2&lt;=0.2, 2, 1)))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(C3&lt;=-0.05, 1, IF(C3&lt;0, 2, IF(C3&lt;=0.05, 5, IF(C3&lt;=0.12, 4, IF(C3&lt;=0.2, 2, 1)))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(C4&lt;=-0.05, 1, IF(C4&lt;0, 2, IF(C4&lt;=0.05, 5, IF(C4&lt;=0.12, 4, IF(C4&lt;=0.2, 2, 1)))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(C5&lt;=-0.05, 1, IF(C5&lt;0, 2, IF(C5&lt;=0.05, 5, IF(C5&lt;=0.12, 4, IF(C5&lt;=0.2, 2, 1)))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(C6&lt;=-0.05, 1, IF(C6&lt;0, 2, IF(C6&lt;=0.05, 5, IF(C6&lt;=0.12, 4, IF(C6&lt;=0.2, 2, 1)))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(C7&lt;=-0.05, 1, IF(C7&lt;0, 2, IF(C7&lt;=0.05, 5, IF(C7&lt;=0.12, 4, IF(C7&lt;=0.2, 2, 1)))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(D2-$J$8&lt;=-0.3, 5, IF(D2-$J$8&lt;=-0.1, 4, IF(D2-$J$8&lt;=0.1, 3, IF(D2-$J$8&lt;=0.3, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(D3-$J$8&lt;=-0.3, 5, IF(D3-$J$8&lt;=-0.1, 4, IF(D3-$J$8&lt;=0.1, 3, IF(D3-$J$8&lt;=0.3, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(D4-$J$8&lt;=-0.3, 5, IF(D4-$J$8&lt;=-0.1, 4, IF(D4-$J$8&lt;=0.1, 3, IF(D4-$J$8&lt;=0.3, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(D5-$J$8&lt;=-0.3, 5, IF(D5-$J$8&lt;=-0.1, 4, IF(D5-$J$8&lt;=0.1, 3, IF(D5-$J$8&lt;=0.3, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(D6-$J$8&lt;=-0.3, 5, IF(D6-$J$8&lt;=-0.1, 4, IF(D6-$J$8&lt;=0.1, 3, IF(D6-$J$8&lt;=0.3, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(D7-$J$8&lt;=-0.3, 5, IF(D7-$J$8&lt;=-0.1, 4, IF(D7-$J$8&lt;=0.1, 3, IF(D7-$J$8&lt;=0.3, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(E2-$K$8&lt;=-0.2, 5, IF(E2-$K$8&lt;=-0.05, 4, IF(E2-$K$8&lt;=0.05, 3, IF(E2-$K$8&lt;=0.2, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(E3-$K$8&lt;=-0.2, 5, IF(E3-$K$8&lt;=-0.05, 4, IF(E3-$K$8&lt;=0.05, 3, IF(E3-$K$8&lt;=0.2, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(E4-$K$8&lt;=-0.2, 5, IF(E4-$K$8&lt;=-0.05, 4, IF(E4-$K$8&lt;=0.05, 3, IF(E4-$K$8&lt;=0.2, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(E5-$K$8&lt;=-0.2, 5, IF(E5-$K$8&lt;=-0.05, 4, IF(E5-$K$8&lt;=0.05, 3, IF(E5-$K$8&lt;=0.2, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(E6-$K$8&lt;=-0.2, 5, IF(E6-$K$8&lt;=-0.05, 4, IF(E6-$K$8&lt;=0.05, 3, IF(E6-$K$8&lt;=0.2, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(E7-$K$8&lt;=-0.2, 5, IF(E7-$K$8&lt;=-0.05, 4, IF(E7-$K$8&lt;=0.05, 3, IF(E7-$K$8&lt;=0.2, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(F2-$L$8&lt;=-0.04, 5, IF(F2-$L$8&lt;=-0.01, 4, IF(F2-$L$8&lt;=0.01, 3, IF(F2-$L$8&lt;=0.04, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(F3-$L$8&lt;=-0.04, 5, IF(F3-$L$8&lt;=-0.01, 4, IF(F3-$L$8&lt;=0.01, 3, IF(F3-$L$8&lt;=0.04, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(F4-$L$8&lt;=-0.04, 5, IF(F4-$L$8&lt;=-0.01, 4, IF(F4-$L$8&lt;=0.01, 3, IF(F4-$L$8&lt;=0.04, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(F5-$L$8&lt;=-0.04, 5, IF(F5-$L$8&lt;=-0.01, 4, IF(F5-$L$8&lt;=0.01, 3, IF(F5-$L$8&lt;=0.04, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(F6-$L$8&lt;=-0.04, 5, IF(F6-$L$8&lt;=-0.01, 4, IF(F6-$L$8&lt;=0.01, 3, IF(F6-$L$8&lt;=0.04, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(F7-$L$8&lt;=-0.04, 5, IF(F7-$L$8&lt;=-0.01, 4, IF(F7-$L$8&lt;=0.01, 3, IF(F7-$L$8&lt;=0.04, 2, 1))))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=H2 + J2 + K2 + L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=H3 + J3 + K3 + L3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=H4 + J4 + K4 + L4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=H5 + J5 + K5 + L5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=H6 + J6 + K6 + L6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=H7 + J7 + K7 + L7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=I2 + L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=I3 + L3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=I4 + L4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=I5 + L5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=I6 + L6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=I7 + L7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M2 - INPUT!R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M3 - INPUT!R3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M4 - INPUT!R4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M5 - INPUT!R5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M6 - INPUT!R6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M7 - INPUT!R7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M2 + N2 + O2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M3 + N3 + O3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M4 + N4 + O4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M5 + N5 + O5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M6 + N6 + O6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=M7 + N7 + O7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  AND(A2=1, S2="超伸び型"), 3,
+  AND(A2=1, S2="バランス"), 1,
+  AND(A2=4, S2="超伸び型"), 4,
+  AND(A2&gt;=2, S2="超伸び型"), 3,
+  S2="差し型", 2,
+  S2="攻め型", 2,
+  TRUE, 0
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  AND(A3=1, S3="超伸び型"), 3,
+  AND(A3=1, S3="バランス"), 1,
+  AND(A3=4, S3="超伸び型"), 4,
+  AND(A3&gt;=2, S3="超伸び型"), 3,
+  S3="差し型", 2,
+  S3="攻め型", 2,
+  TRUE, 0
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  AND(A4=1, S4="超伸び型"), 3,
+  AND(A4=1, S4="バランス"), 1,
+  AND(A4=4, S4="超伸び型"), 4,
+  AND(A4&gt;=2, S4="超伸び型"), 3,
+  S4="差し型", 2,
+  S4="攻め型", 2,
+  TRUE, 0
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  AND(A5=1, S5="超伸び型"), 3,
+  AND(A5=1, S5="バランス"), 1,
+  AND(A5=4, S5="超伸び型"), 4,
+  AND(A5&gt;=2, S5="超伸び型"), 3,
+  S5="差し型", 2,
+  S5="攻め型", 2,
+  TRUE, 0
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  AND(A6=1, S6="超伸び型"), 3,
+  AND(A6=1, S6="バランス"), 1,
+  AND(A6=4, S6="超伸び型"), 4,
+  AND(A6&gt;=2, S6="超伸び型"), 3,
+  S6="差し型", 2,
+  S6="攻め型", 2,
+  TRUE, 0
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  AND(A7=1, S7="超伸び型"), 3,
+  AND(A7=1, S7="バランス"), 1,
+  AND(A7=4, S7="超伸び型"), 4,
+  AND(A7&gt;=2, S7="超伸び型"), 3,
+  S7="差し型", 2,
+  S7="攻め型", 2,
+  TRUE, 0
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  L2=5, "超伸び型",
+  AND(N2 &gt;= O2 + 2, H2 &gt;= 4), "攻め型",
+  AND(O2 &gt;= N2 + 2, K2 &gt;= 4), "差し型",
+  H2=5, "伸び型",
+  TRUE, "バランス"
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  L3=5, "超伸び型",
+  AND(N3 &gt;= O3 + 2, H3 &gt;= 4), "攻め型",
+  AND(O3 &gt;= N3 + 2, K3 &gt;= 4), "差し型",
+  H3=5, "伸び型",
+  TRUE, "バランス"
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  L4=5, "超伸び型",
+  AND(N4 &gt;= O4 + 2, H4 &gt;= 4), "攻め型",
+  AND(O4 &gt;= N4 + 2, K4 &gt;= 4), "差し型",
+  H4=5, "伸び型",
+  TRUE, "バランス"
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  L5=5, "超伸び型",
+  AND(N5 &gt;= O5 + 2, H5 &gt;= 4), "攻め型",
+  AND(O5 &gt;= N5 + 2, K5 &gt;= 4), "差し型",
+  H5=5, "伸び型",
+  TRUE, "バランス"
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  L6=5, "超伸び型",
+  AND(N6 &gt;= O6 + 2, H6 &gt;= 4), "攻め型",
+  AND(O6 &gt;= N6 + 2, K6 &gt;= 4), "差し型",
+  H6=5, "伸び型",
+  TRUE, "バランス"
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IFS(
+  L7=5, "超伸び型",
+  AND(N7 &gt;= O7 + 2, H7 &gt;= 4), "攻め型",
+  AND(O7 &gt;= N7 + 2, K7 &gt;= 4), "差し型",
+  H7=5, "伸び型",
+  TRUE, "バランス"
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(OR(S2="超伸び型", S2="攻め型"), IF(L2 = MAXIFS($L$2:$L$7, $S$2:$S$7, S2), 1, 0), 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(OR(S3="超伸び型", S3="攻め型"), IF(L3 = MAXIFS($L$2:$L$7, $S$2:$S$7, S3), 1, 0), 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(OR(S4="超伸び型", S4="攻め型"), IF(L4 = MAXIFS($L$2:$L$7, $S$2:$S$7, S4), 1, 0), 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(OR(S5="超伸び型", S5="攻め型"), IF(L5 = MAXIFS($L$2:$L$7, $S$2:$S$7, S5), 1, 0), 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(OR(S6="超伸び型", S6="攻め型"), IF(L6 = MAXIFS($L$2:$L$7, $S$2:$S$7, S6), 1, 0), 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(OR(S7="超伸び型", S7="攻め型"), IF(L7 = MAXIFS($L$2:$L$7, $S$2:$S$7, S7), 1, 0), 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(
+ COUNTIF($T$2:$T$7,1)&gt;0,
+   IF(
+     OR(
+       A2 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) - 1,
+       A2 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) + 1
+     ),
+     1,
+     0
+   ),
+   IF(
+     OR(
+       A2 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) - 1,
+       A2 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) + 1
+     ),
+     1,
+     0
+   )
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(
+ COUNTIF($T$2:$T$7,1)&gt;0,
+   IF(
+     OR(
+       A3 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) - 1,
+       A3 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) + 1
+     ),
+     1,
+     0
+   ),
+   IF(
+     OR(
+       A3 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) - 1,
+       A3 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) + 1
+     ),
+     1,
+     0
+   )
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(
+ COUNTIF($T$2:$T$7,1)&gt;0,
+   IF(
+     OR(
+       A4 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) - 1,
+       A4 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) + 1
+     ),
+     1,
+     0
+   ),
+   IF(
+     OR(
+       A4 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) - 1,
+       A4 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) + 1
+     ),
+     1,
+     0
+   )
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(
+ COUNTIF($T$2:$T$7,1)&gt;0,
+   IF(
+     OR(
+       A5 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) - 1,
+       A5 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) + 1
+     ),
+     1,
+     0
+   ),
+   IF(
+     OR(
+       A5 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) - 1,
+       A5 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) + 1
+     ),
+     1,
+     0
+   )
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(
+ COUNTIF($T$2:$T$7,1)&gt;0,
+   IF(
+     OR(
+       A6 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) - 1,
+       A6 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) + 1
+     ),
+     1,
+     0
+   ),
+   IF(
+     OR(
+       A6 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) - 1,
+       A6 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) + 1
+     ),
+     1,
+     0
+   )
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=IF(
+ COUNTIF($T$2:$T$7,1)&gt;0,
+   IF(
+     OR(
+       A7 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) - 1,
+       A7 = INDEX($A$2:$A$7, MATCH(1,$T$2:$T$7,0)) + 1
+     ),
+     1,
+     0
+   ),
+   IF(
+     OR(
+       A7 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) - 1,
+       A7 = INDEX($A$2:$A$7, MATCH(MAX($N$2:$N$7),$N$2:$N$7,0)) + 1
+     ),
+     1,
+     0
+   )
+)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=Q2 + R2 + U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=Q3 + R3 + U3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=Q4 + R4 + U4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=Q5 + R5 + U5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=Q6 + R6 + U6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=Q7 + R7 + U7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST評価(1〜5)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2542,7 +3329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2698,6 +3485,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2713,10 +3508,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4703,6 +5494,1091 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A46C5FC-3058-4CFF-8FDD-8C508C2C865F}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="8" width="9" style="1"/>
+    <col min="9" max="18" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="10" customFormat="1" ht="54">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="68">
+        <f>B12</f>
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D2" s="68">
+        <f>B14</f>
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E2" s="11">
+        <f>TENJI!Q2</f>
+        <v>18</v>
+      </c>
+      <c r="F2" s="11" t="str">
+        <f>TENJI!S2</f>
+        <v>バランス</v>
+      </c>
+      <c r="G2" s="11">
+        <f>TENJI!R2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <f>TENJI!T2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <f>TENJI!U2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <f>TENJI!V2</f>
+        <v>19</v>
+      </c>
+      <c r="K2" s="68">
+        <f>KIMARITE!C3</f>
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="L2" s="68">
+        <f>KIMARITE!D3</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="68">
+        <f>KIMARITE!E3</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="68">
+        <f>KIMARITE!F3</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="68">
+        <f>KIMARITE!G3</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="68">
+        <f>KIMARITE!H3</f>
+        <v>0.156</v>
+      </c>
+      <c r="Q2" s="68">
+        <f>KIMARITE!I3</f>
+        <v>0.25</v>
+      </c>
+      <c r="R2" s="68">
+        <f>KIMARITE!J3</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="S2" s="68">
+        <f>KIMARITE!K2 * (1 + (E2/100))</f>
+        <v>0.54044000000000003</v>
+      </c>
+      <c r="T2" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="V2" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="W2" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="X2" s="11" t="str">
+        <f t="shared" ref="X2:X7" si="0">IF(AND(K2&gt;=0.2, B2=1),"逃げ型",
+IF(L2&gt;=0.05,"差し型",
+IF(OR(M2&gt;=0.05, N2&gt;=0.05),"攻め型",
+IF(OR(P2&gt;=0.2, R2&gt;=0.2),"脆い型",
+"無色"))))</f>
+        <v>逃げ型</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>IF(X2="攻め型",1,
+IF(X2="差し型",1,
+IF(X2="逃げ型",1,
+IF(X2="脆い型",-1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="11">
+        <f t="shared" ref="Z2:Z7" si="1">J2 + Y2</f>
+        <v>20</v>
+      </c>
+      <c r="AA2" s="13">
+        <f t="shared" ref="AA2:AA7" si="2">IF(
+   AND(
+      I2 = 0,
+      Z2 &lt; MEDIAN($Z$2:$Z$7),
+      OR(
+         C2 &lt; 0.5,
+         D2 &lt; 0.5
+      )
+   ),
+   1,
+   0
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="68">
+        <f>C12</f>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D3" s="68">
+        <f>C14</f>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E3" s="11">
+        <f>TENJI!Q3</f>
+        <v>28</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f>TENJI!S3</f>
+        <v>バランス</v>
+      </c>
+      <c r="G3" s="11">
+        <f>TENJI!R3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <f>TENJI!T3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <f>TENJI!U3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <f>TENJI!V3</f>
+        <v>28</v>
+      </c>
+      <c r="K3" s="68">
+        <f>KIMARITE!C5</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="68">
+        <f>KIMARITE!D5</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M3" s="68">
+        <f>KIMARITE!E5</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N3" s="68">
+        <f>KIMARITE!F5</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="68">
+        <f>KIMARITE!G5</f>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="P3" s="68">
+        <f>KIMARITE!H5</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="68">
+        <f>KIMARITE!I5</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="68">
+        <f>KIMARITE!J5</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="68">
+        <f>(KIMARITE!L4 + KIMARITE!M4 + KIMARITE!N4) * (1 + (E3/100))</f>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="T3" s="90" t="str">
+        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L4&gt;0.12), "★2差し", "-")</f>
+        <v>★2差し</v>
+      </c>
+      <c r="U3" s="90" t="str">
+        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M4&gt;0.12), "🔥2まくり", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="V3" s="90" t="str">
+        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N4&gt;0.12), "✨2まくり差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="W3" s="68" t="str">
+        <f>IF(KIMARITE!G4&gt;0.4, "🌓壁役(逃がし)", "-")</f>
+        <v>🌓壁役(逃がし)</v>
+      </c>
+      <c r="X3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>差し型</v>
+      </c>
+      <c r="Y3" s="11">
+        <f t="shared" ref="Y3:Y7" si="3">IF(X3="攻め型",1,
+IF(X3="差し型",1,
+IF(X3="逃げ型",1,
+IF(X3="脆い型",-1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="11">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AA3" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="68">
+        <f>D12</f>
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D4" s="68">
+        <f>D14</f>
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="11">
+        <f>TENJI!Q4</f>
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f>TENJI!S4</f>
+        <v>バランス</v>
+      </c>
+      <c r="G4" s="11">
+        <f>TENJI!R4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <f>TENJI!T4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <f>TENJI!U4</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <f>TENJI!V4</f>
+        <v>25</v>
+      </c>
+      <c r="K4" s="68">
+        <f>KIMARITE!C7</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="68">
+        <f>KIMARITE!D7</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M4" s="68">
+        <f>KIMARITE!E7</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N4" s="68">
+        <f>KIMARITE!F7</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="O4" s="68">
+        <f>KIMARITE!G7</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="68">
+        <f>KIMARITE!H7</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="68">
+        <f>KIMARITE!I7</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="68">
+        <f>KIMARITE!J7</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="68">
+        <f>(KIMARITE!L6+KIMARITE!M6+KIMARITE!N6)*(1+(E4/100))</f>
+        <v>0.20708000000000001</v>
+      </c>
+      <c r="T4" s="90" t="str">
+        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L6&gt;0.12), "★3差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="U4" s="90" t="str">
+        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M6&gt;0.12), "🔥3まくり", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="V4" s="90" t="str">
+        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N6&gt;0.12), "✨3まくり差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="W4" s="68" t="str">
+        <f>IF(KIMARITE!G6&gt;0.4, "🛡️外ブロック", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="X4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>差し型</v>
+      </c>
+      <c r="Y4" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AA4" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="68">
+        <f>E12</f>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D5" s="68">
+        <f>E14</f>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="11">
+        <f>TENJI!Q5</f>
+        <v>25</v>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f>TENJI!S5</f>
+        <v>超伸び型</v>
+      </c>
+      <c r="G5" s="11">
+        <f>TENJI!R5</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="11">
+        <f>TENJI!T5</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <f>TENJI!U5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <f>TENJI!V5</f>
+        <v>29</v>
+      </c>
+      <c r="K5" s="68">
+        <f>KIMARITE!C9</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="68">
+        <f>KIMARITE!D9</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="68">
+        <f>KIMARITE!E9</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="68">
+        <f>KIMARITE!F9</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="68">
+        <f>KIMARITE!G9</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="68">
+        <f>KIMARITE!H9</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="68">
+        <f>KIMARITE!I9</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="68">
+        <f>KIMARITE!J9</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="68">
+        <f>(KIMARITE!L8+KIMARITE!M8+KIMARITE!N8)*(1+(E5/100))</f>
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="T5" s="90" t="str">
+        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L8&gt;0.12), "★4差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="U5" s="90" t="str">
+        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M8&gt;0.12), "🔥4まくり", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="V5" s="90" t="str">
+        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N8&gt;0.12), "✨4まくり差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="W5" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="X5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>無色</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AA5" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="68">
+        <f>F12</f>
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D6" s="68">
+        <f>F14</f>
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="11">
+        <f>TENJI!Q6</f>
+        <v>22</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f>TENJI!S6</f>
+        <v>バランス</v>
+      </c>
+      <c r="G6" s="11">
+        <f>TENJI!R6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <f>TENJI!T6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <f>TENJI!U6</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <f>TENJI!V6</f>
+        <v>23</v>
+      </c>
+      <c r="K6" s="68">
+        <f>KIMARITE!C11</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="68">
+        <f>KIMARITE!D11</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="68">
+        <f>KIMARITE!E11</f>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="N6" s="68">
+        <f>KIMARITE!F11</f>
+        <v>0.105</v>
+      </c>
+      <c r="O6" s="68">
+        <f>KIMARITE!G11</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="68">
+        <f>KIMARITE!H11</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="68">
+        <f>KIMARITE!I11</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="68">
+        <f>KIMARITE!J11</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="68">
+        <f>(KIMARITE!L10+KIMARITE!M10+KIMARITE!N10)*(1+(E6/100))</f>
+        <v>0.16958000000000001</v>
+      </c>
+      <c r="T6" s="90" t="str">
+        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L10&gt;0.12), "★5差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="U6" s="90" t="str">
+        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M10&gt;0.12), "🔥5まくり", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="V6" s="90" t="str">
+        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N10&gt;0.12), "✨5まくり差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="W6" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="X6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>攻め型</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AA6" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="14.25" thickBot="1">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26">
+        <v>6</v>
+      </c>
+      <c r="C7" s="69">
+        <f>G12</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D7" s="69">
+        <f>G14</f>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E7" s="26">
+        <f>TENJI!Q7</f>
+        <v>21</v>
+      </c>
+      <c r="F7" s="26" t="str">
+        <f>TENJI!S7</f>
+        <v>バランス</v>
+      </c>
+      <c r="G7" s="26">
+        <f>TENJI!R7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <f>TENJI!T7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <f>TENJI!U7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <f>TENJI!V7</f>
+        <v>21</v>
+      </c>
+      <c r="K7" s="69">
+        <f>KIMARITE!C13</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="69">
+        <f>KIMARITE!D13</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="69">
+        <f>KIMARITE!E13</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="69">
+        <f>KIMARITE!F13</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="69">
+        <f>KIMARITE!G13</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="69">
+        <f>KIMARITE!H13</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="69">
+        <f>KIMARITE!I13</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="69">
+        <f>KIMARITE!J13</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="69">
+        <f>(KIMARITE!L12+KIMARITE!M12+KIMARITE!N12)*(1+(E7/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="91" t="str">
+        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L12&gt;0.12), "★6差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="U7" s="91" t="str">
+        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M12&gt;0.12), "🔥6まくり", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="V7" s="91" t="str">
+        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N12&gt;0.12), "✨6まくり差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="W7" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="X7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>無色</v>
+      </c>
+      <c r="Y7" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="26">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="AA7" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="14.25" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" ht="18" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="66">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="C12" s="66">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D12" s="66">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="E12" s="66">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F12" s="66">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="G12" s="66">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1">
+        <v>-32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-21</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-19</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-22</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" ht="18" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="66">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="C14" s="66">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D14" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="66">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="66">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1">
+        <v>-14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-9</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CA8FC-645F-4FB7-8703-A2965AF3146F}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="40.5">
+      <c r="A1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="11">
+        <f>INDEX(FORECAST!A2:A7, MATCH(MAX(FORECAST!Z2:Z7), FORECAST!Z2:Z7, 0))</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="str" cm="1">
+        <f t="array" ref="C2">_xlfn.LET(
+   _xlpm.head, B2,
+   _xlpm.nums, _xlfn._xlws.FILTER(FORECAST!A2:A7, FORECAST!A2:A7&lt;&gt;_xlpm.head),
+   _xlpm.scores, _xlfn._xlws.FILTER(FORECAST!Z2:Z7, FORECAST!A2:A7&lt;&gt;_xlpm.head),
+   _xlpm.sorted, _xlfn.TAKE(_xlfn.SORTBY(_xlpm.nums, _xlpm.scores, -1), 3),
+   _xlfn.TEXTJOIN("・", TRUE, _xlpm.sorted &amp; "")
+)</f>
+        <v>4・3・5</v>
+      </c>
+      <c r="D2" s="11" t="str" cm="1">
+        <f t="array" ref="D2">_xlfn.TEXTJOIN("・", TRUE,
+   IF(
+      (FORECAST!$AA$2:$AA$7=1) *
+      ISERROR(MATCH(FORECAST!$A$2:$A$7, --_xlfn.TEXTSPLIT(C2,"・"), 0)) *
+      (FORECAST!$A$2:$A$7&lt;&gt;B2),
+      FORECAST!$A$2:$A$7,
+      ""
+   )
+)</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="str">
+        <f>_xlfn.TEXTJOIN("",,_xlfn.TEXTSPLIT(C2,"・"))</f>
+        <v>435</v>
+      </c>
+      <c r="F2" s="11" t="str">
+        <f>IF(D2="", "", _xlfn.TEXTJOIN("",,_xlfn.TEXTSPLIT(D2,"・")))</f>
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="str" cm="1">
+        <f t="array" ref="G2">_xlfn.TEXTJOIN("・", TRUE,
+   _xlfn.LET(
+      _xlpm.mates, _xlfn.TEXTSPLIT(C2, "・"),
+      _xlpm.scores, _xlfn.MAP(_xlpm.mates, _xlfn.LAMBDA(_xlpm.x,
+         INDEX(FORECAST!Z2:Z7, MATCH(VALUE(_xlpm.x), VALUE(FORECAST!A2:A7), 0))
+      )),
+      _xlpm.scores
+   )
+)</f>
+        <v>29・26・24</v>
+      </c>
+      <c r="H2" s="13" t="str" cm="1">
+        <f t="array" ref="H2">IF(
+  B2="",
+  "",
+  _xlfn.LET(
+    _xlpm.head, TEXT(B2,"0"),
+    _xlpm.mates, E2,
+    _xlpm.cut, F2,
+    _xlpm.used, _xlpm.head &amp; _xlpm.mates &amp; _xlpm.cut,
+    _xlpm.nums, _xlfn.SEQUENCE(6),
+    _xlpm.cond, ISNUMBER(IFERROR(FIND(TEXT(_xlpm.nums,"0"), _xlpm.used), "")),
+    _xlpm.rest, _xlfn.TEXTJOIN("",,IF(_xlpm.cond, "", TEXT(_xlpm.nums,"0"))),
+    _xlpm.head &amp; "-" &amp; _xlpm.mates &amp; "-" &amp; _xlpm.mates &amp; _xlpm.rest
+  )
+)</f>
+        <v>2-435-4351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="26" cm="1">
+        <f t="array" ref="B3">INDEX(FORECAST!$A$2:$A$7, MATCH(LARGE(IF(FORECAST!$A$2:$A$7&lt;&gt;B2, FORECAST!$Z$2:$Z$7), 1), IF(FORECAST!$A$2:$A$7&lt;&gt;B2, FORECAST!$Z$2:$Z$7), 0))</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="26" t="str" cm="1">
+        <f t="array" ref="C3">_xlfn.TEXTJOIN("・", TRUE,
+   _xlfn.LET(
+      _xlpm.head, B3,
+      _xlpm.nums, _xlfn._xlws.FILTER(FORECAST!A2:A7,
+         (FORECAST!A2:A7&lt;&gt;_xlpm.head)
+      ),
+      _xlpm.scores, _xlfn._xlws.FILTER(FORECAST!Z2:Z7,
+         (FORECAST!A2:A7&lt;&gt;_xlpm.head)
+      ),
+      _xlpm.sorted, _xlfn.TAKE(_xlfn.SORTBY(_xlpm.nums, _xlpm.scores, -1), 3),
+      _xlpm.sorted
+   )
+)</f>
+        <v>2・3・5</v>
+      </c>
+      <c r="D3" s="26" t="str" cm="1">
+        <f t="array" ref="D3">_xlfn.TEXTJOIN("・", TRUE,
+   IF(
+      (FORECAST!$AA$2:$AA$7=1) *
+      ISERROR(MATCH(FORECAST!$A$2:$A$7, --_xlfn.TEXTSPLIT(C3,"・"), 0)) *
+      (FORECAST!$A$2:$A$7&lt;&gt;B3),
+      FORECAST!$A$2:$A$7,
+      ""
+   )
+)</f>
+        <v>6</v>
+      </c>
+      <c r="E3" s="11" t="str">
+        <f>_xlfn.TEXTJOIN("",,_xlfn.TEXTSPLIT(C3,"・"))</f>
+        <v>235</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f>IF(D3="", "", _xlfn.TEXTJOIN("",,_xlfn.TEXTSPLIT(D3,"・")))</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="26" t="str" cm="1">
+        <f t="array" ref="G3">_xlfn.TEXTJOIN("・", TRUE,
+   _xlfn.LET(
+      _xlpm.mates, _xlfn.TEXTSPLIT(C3, "・"),
+      _xlpm.scores, _xlfn.MAP(_xlpm.mates, _xlfn.LAMBDA(_xlpm.x,
+         INDEX(FORECAST!Z2:Z7, MATCH(VALUE(_xlpm.x), VALUE(FORECAST!A2:A7), 0))
+      )),
+      _xlpm.scores
+   )
+)</f>
+        <v>29・26・24</v>
+      </c>
+      <c r="H3" s="13" t="str" cm="1">
+        <f t="array" ref="H3">IF(
+  B3="",
+  "",
+  _xlfn.LET(
+    _xlpm.head, TEXT(B3,"0"),
+    _xlpm.mates, E3,
+    _xlpm.cut, F3,
+    _xlpm.used, _xlpm.head &amp; _xlpm.mates &amp; _xlpm.cut,
+    _xlpm.nums, _xlfn.SEQUENCE(6),
+    _xlpm.cond, ISNUMBER(IFERROR(FIND(TEXT(_xlpm.nums,"0"), _xlpm.used), "")),
+    _xlpm.rest, _xlfn.TEXTJOIN("",,IF(_xlpm.cond, "", TEXT(_xlpm.nums,"0"))),
+    _xlpm.head &amp; "-" &amp; _xlpm.mates &amp; "-" &amp; _xlpm.mates &amp; _xlpm.rest
+  )
+)</f>
+        <v>4-235-2351</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BA65B7-88D2-4A2E-BE43-09D894FEEFB0}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:G17"/>
@@ -5016,7 +6892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBCA43F-CDEF-4BFF-B0EE-ACEB59431B4C}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E20"/>
@@ -10458,9 +12334,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0116BD53-AAEE-4B7E-9374-14C64AA27CA4}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
@@ -10560,7 +12437,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11492,1082 +13369,1042 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A46C5FC-3058-4CFF-8FDD-8C508C2C865F}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AA16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940F969C-8539-49DF-80E9-20D610F37F5A}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="133.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="8" width="9" style="1"/>
-    <col min="9" max="18" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="98.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="100.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="102.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="97.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="76" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="133.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="54">
+    <row r="1" spans="1:22" s="10" customFormat="1">
       <c r="A1" s="24" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>96</v>
+        <v>496</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>104</v>
+        <v>63</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="U1" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+        <v>67</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="256.5">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="68">
-        <f>B12</f>
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="D2" s="68">
-        <f>B14</f>
-        <v>0.92900000000000005</v>
+        <f>B15</f>
+        <v>6.85</v>
+      </c>
+      <c r="C2" s="11">
+        <f>VALUE(SUBSTITUTE(B16, "F", "-0"))</f>
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="11">
+        <f>B17</f>
+        <v>0</v>
       </c>
       <c r="E2" s="11">
-        <f>TENJI!Q2</f>
-        <v>18</v>
-      </c>
-      <c r="F2" s="11" t="str">
-        <f>TENJI!S2</f>
-        <v>バランス</v>
+        <f>B18</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="11">
+        <f>B19</f>
+        <v>7.13</v>
       </c>
       <c r="G2" s="11">
-        <f>TENJI!R2</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <f>TENJI!T2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
-        <f>TENJI!U2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <f>TENJI!V2</f>
-        <v>19</v>
-      </c>
-      <c r="K2" s="68">
-        <f>KIMARITE!C3</f>
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="L2" s="68">
-        <f>KIMARITE!D3</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="68">
-        <f>KIMARITE!E3</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="68">
-        <f>KIMARITE!F3</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="68">
-        <f>KIMARITE!G3</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="68">
-        <f>KIMARITE!H3</f>
-        <v>0.156</v>
-      </c>
-      <c r="Q2" s="68">
-        <f>KIMARITE!I3</f>
-        <v>0.25</v>
-      </c>
-      <c r="R2" s="68">
-        <f>KIMARITE!J3</f>
-        <v>3.1E-2</v>
-      </c>
-      <c r="S2" s="68">
-        <f>KIMARITE!K2 * (1 + (E2/100))</f>
-        <v>0.54044000000000003</v>
-      </c>
-      <c r="T2" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="U2" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="V2" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="W2" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="X2" s="11" t="str">
-        <f t="shared" ref="X2:X7" si="0">IF(AND(K2&gt;=0.2, B2=1),"逃げ型",
-IF(L2&gt;=0.05,"差し型",
-IF(OR(M2&gt;=0.05, N2&gt;=0.05),"攻め型",
-IF(OR(P2&gt;=0.2, R2&gt;=0.2),"脆い型",
-"無色"))))</f>
-        <v>逃げ型</v>
-      </c>
-      <c r="Y2" s="11">
-        <f>IF(X2="攻め型",1,
-IF(X2="差し型",1,
-IF(X2="逃げ型",1,
-IF(X2="脆い型",-1,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="Z2" s="11">
-        <f t="shared" ref="Z2:Z7" si="1">J2 + Y2</f>
-        <v>20</v>
-      </c>
-      <c r="AA2" s="13">
-        <f t="shared" ref="AA2:AA7" si="2">IF(
-   AND(
-      I2 = 0,
-      Z2 &lt; MEDIAN($Z$2:$Z$7),
-      OR(
-         C2 &lt; 0.5,
-         D2 &lt; 0.5
-      )
-   ),
-   1,
-   0
-)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <f>B2-MASTER!$E$3</f>
+        <v>7.6219512195129901E-2</v>
+      </c>
+      <c r="H2" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="I2" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="J2" s="102" t="s">
+        <v>424</v>
+      </c>
+      <c r="K2" s="102" t="s">
+        <v>430</v>
+      </c>
+      <c r="L2" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="M2" s="102" t="s">
+        <v>442</v>
+      </c>
+      <c r="N2" s="102" t="s">
+        <v>448</v>
+      </c>
+      <c r="O2" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="P2" s="102" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q2" s="102" t="s">
+        <v>460</v>
+      </c>
+      <c r="R2" s="113" t="s">
+        <v>466</v>
+      </c>
+      <c r="S2" s="104" t="s">
+        <v>472</v>
+      </c>
+      <c r="T2" s="102" t="s">
+        <v>478</v>
+      </c>
+      <c r="U2" s="104" t="s">
+        <v>484</v>
+      </c>
+      <c r="V2" s="111" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="256.5">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="68">
-        <f>C12</f>
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="D3" s="68">
-        <f>C14</f>
-        <v>0.84599999999999997</v>
+        <f>C15</f>
+        <v>6.96</v>
+      </c>
+      <c r="C3" s="11">
+        <f>VALUE(SUBSTITUTE(C16, "F", "-0"))</f>
+        <v>0.03</v>
+      </c>
+      <c r="D3" s="11">
+        <f>C17</f>
+        <v>0</v>
       </c>
       <c r="E3" s="11">
-        <f>TENJI!Q3</f>
-        <v>28</v>
-      </c>
-      <c r="F3" s="11" t="str">
-        <f>TENJI!S3</f>
-        <v>バランス</v>
+        <f>C18</f>
+        <v>5.6</v>
+      </c>
+      <c r="F3" s="11">
+        <f>C19</f>
+        <v>7.1</v>
       </c>
       <c r="G3" s="11">
-        <f>TENJI!R3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <f>TENJI!T3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <f>TENJI!U3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <f>TENJI!V3</f>
-        <v>28</v>
-      </c>
-      <c r="K3" s="68">
-        <f>KIMARITE!C5</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="68">
-        <f>KIMARITE!D5</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="M3" s="68">
-        <f>KIMARITE!E5</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="N3" s="68">
-        <f>KIMARITE!F5</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="68">
-        <f>KIMARITE!G5</f>
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="P3" s="68">
-        <f>KIMARITE!H5</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="68">
-        <f>KIMARITE!I5</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="68">
-        <f>KIMARITE!J5</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="68">
-        <f>(KIMARITE!L4 + KIMARITE!M4 + KIMARITE!N4) * (1 + (E3/100))</f>
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="T3" s="90" t="str">
-        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L4&gt;0.12), "★2差し", "-")</f>
-        <v>★2差し</v>
-      </c>
-      <c r="U3" s="90" t="str">
-        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M4&gt;0.12), "🔥2まくり", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="V3" s="90" t="str">
-        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N4&gt;0.12), "✨2まくり差し", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="W3" s="68" t="str">
-        <f>IF(KIMARITE!G4&gt;0.4, "🌓壁役(逃がし)", "-")</f>
-        <v>🌓壁役(逃がし)</v>
-      </c>
-      <c r="X3" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>差し型</v>
-      </c>
-      <c r="Y3" s="11">
-        <f t="shared" ref="Y3:Y7" si="3">IF(X3="攻め型",1,
-IF(X3="差し型",1,
-IF(X3="逃げ型",1,
-IF(X3="脆い型",-1,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="Z3" s="11">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="AA3" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <f>B3-MASTER!$E$3</f>
+        <v>0.18621951219513022</v>
+      </c>
+      <c r="H3" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="I3" s="102" t="s">
+        <v>419</v>
+      </c>
+      <c r="J3" s="102" t="s">
+        <v>425</v>
+      </c>
+      <c r="K3" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="L3" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="M3" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="N3" s="102" t="s">
+        <v>449</v>
+      </c>
+      <c r="O3" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="P3" s="102" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q3" s="102" t="s">
+        <v>461</v>
+      </c>
+      <c r="R3" s="113" t="s">
+        <v>467</v>
+      </c>
+      <c r="S3" s="104" t="s">
+        <v>473</v>
+      </c>
+      <c r="T3" s="102" t="s">
+        <v>479</v>
+      </c>
+      <c r="U3" s="104" t="s">
+        <v>485</v>
+      </c>
+      <c r="V3" s="111" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="256.5">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>3</v>
-      </c>
-      <c r="C4" s="68">
-        <f>D12</f>
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="D4" s="68">
-        <f>D14</f>
-        <v>0.75</v>
+        <f>D15</f>
+        <v>6.98</v>
+      </c>
+      <c r="C4" s="11">
+        <f>VALUE(SUBSTITUTE(D16, "F", "-0"))</f>
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="11">
+        <f>D17</f>
+        <v>0</v>
       </c>
       <c r="E4" s="11">
-        <f>TENJI!Q4</f>
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="str">
-        <f>TENJI!S4</f>
-        <v>バランス</v>
+        <f>D18</f>
+        <v>5.63</v>
+      </c>
+      <c r="F4" s="11">
+        <f>D19</f>
+        <v>7.13</v>
       </c>
       <c r="G4" s="11">
-        <f>TENJI!R4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <f>TENJI!T4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <f>TENJI!U4</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <f>TENJI!V4</f>
-        <v>25</v>
-      </c>
-      <c r="K4" s="68">
-        <f>KIMARITE!C7</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="68">
-        <f>KIMARITE!D7</f>
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="M4" s="68">
-        <f>KIMARITE!E7</f>
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="N4" s="68">
-        <f>KIMARITE!F7</f>
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="O4" s="68">
-        <f>KIMARITE!G7</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="68">
-        <f>KIMARITE!H7</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="68">
-        <f>KIMARITE!I7</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="68">
-        <f>KIMARITE!J7</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="68">
-        <f>(KIMARITE!L6+KIMARITE!M6+KIMARITE!N6)*(1+(E4/100))</f>
-        <v>0.20708000000000001</v>
-      </c>
-      <c r="T4" s="90" t="str">
-        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L6&gt;0.12), "★3差し", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="U4" s="90" t="str">
-        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M6&gt;0.12), "🔥3まくり", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="V4" s="90" t="str">
-        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N6&gt;0.12), "✨3まくり差し", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="W4" s="68" t="str">
-        <f>IF(KIMARITE!G6&gt;0.4, "🛡️外ブロック", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="X4" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>差し型</v>
-      </c>
-      <c r="Y4" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z4" s="11">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="AA4" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <f>B4-MASTER!$E$3</f>
+        <v>0.20621951219513068</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>414</v>
+      </c>
+      <c r="I4" s="102" t="s">
+        <v>420</v>
+      </c>
+      <c r="J4" s="102" t="s">
+        <v>426</v>
+      </c>
+      <c r="K4" s="102" t="s">
+        <v>432</v>
+      </c>
+      <c r="L4" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="M4" s="102" t="s">
+        <v>444</v>
+      </c>
+      <c r="N4" s="102" t="s">
+        <v>450</v>
+      </c>
+      <c r="O4" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="P4" s="102" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q4" s="102" t="s">
+        <v>462</v>
+      </c>
+      <c r="R4" s="113" t="s">
+        <v>468</v>
+      </c>
+      <c r="S4" s="104" t="s">
+        <v>474</v>
+      </c>
+      <c r="T4" s="102" t="s">
+        <v>480</v>
+      </c>
+      <c r="U4" s="104" t="s">
+        <v>486</v>
+      </c>
+      <c r="V4" s="111" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="256.5">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>4</v>
-      </c>
-      <c r="C5" s="68">
-        <f>E12</f>
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="D5" s="68">
-        <f>E14</f>
-        <v>0.5</v>
+        <f>E15</f>
+        <v>6.93</v>
+      </c>
+      <c r="C5" s="11">
+        <f>VALUE(SUBSTITUTE(E16, "F", "-0"))</f>
+        <v>-0.02</v>
+      </c>
+      <c r="D5" s="11">
+        <f>E17</f>
+        <v>0</v>
       </c>
       <c r="E5" s="11">
-        <f>TENJI!Q5</f>
-        <v>25</v>
-      </c>
-      <c r="F5" s="11" t="str">
-        <f>TENJI!S5</f>
-        <v>超伸び型</v>
+        <f>E18</f>
+        <v>5.73</v>
+      </c>
+      <c r="F5" s="11">
+        <f>E19</f>
+        <v>7.07</v>
       </c>
       <c r="G5" s="11">
-        <f>TENJI!R5</f>
-        <v>4</v>
-      </c>
-      <c r="H5" s="11">
-        <f>TENJI!T5</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
-        <f>TENJI!U5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <f>TENJI!V5</f>
-        <v>29</v>
-      </c>
-      <c r="K5" s="68">
-        <f>KIMARITE!C9</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="68">
-        <f>KIMARITE!D9</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="68">
-        <f>KIMARITE!E9</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="68">
-        <f>KIMARITE!F9</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="68">
-        <f>KIMARITE!G9</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="68">
-        <f>KIMARITE!H9</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="68">
-        <f>KIMARITE!I9</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="68">
-        <f>KIMARITE!J9</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="68">
-        <f>(KIMARITE!L8+KIMARITE!M8+KIMARITE!N8)*(1+(E5/100))</f>
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="T5" s="90" t="str">
-        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L8&gt;0.12), "★4差し", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="U5" s="90" t="str">
-        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M8&gt;0.12), "🔥4まくり", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="V5" s="90" t="str">
-        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N8&gt;0.12), "✨4まくり差し", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="W5" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="X5" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>無色</v>
-      </c>
-      <c r="Y5" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="11">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="AA5" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <f>B5-MASTER!$E$3</f>
+        <v>0.15621951219512997</v>
+      </c>
+      <c r="H5" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="102" t="s">
+        <v>421</v>
+      </c>
+      <c r="J5" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="K5" s="102" t="s">
+        <v>433</v>
+      </c>
+      <c r="L5" s="102" t="s">
+        <v>439</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>445</v>
+      </c>
+      <c r="N5" s="102" t="s">
+        <v>451</v>
+      </c>
+      <c r="O5" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="P5" s="102" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q5" s="102" t="s">
+        <v>463</v>
+      </c>
+      <c r="R5" s="113" t="s">
+        <v>469</v>
+      </c>
+      <c r="S5" s="104" t="s">
+        <v>475</v>
+      </c>
+      <c r="T5" s="102" t="s">
+        <v>481</v>
+      </c>
+      <c r="U5" s="104" t="s">
+        <v>487</v>
+      </c>
+      <c r="V5" s="111" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="256.5">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>5</v>
-      </c>
-      <c r="C6" s="68">
-        <f>F12</f>
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="D6" s="68">
-        <f>F14</f>
-        <v>0.6</v>
+        <f>F15</f>
+        <v>6.92</v>
+      </c>
+      <c r="C6" s="11">
+        <f>VALUE(SUBSTITUTE(F16, "F", "-0"))</f>
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="11">
+        <f>F17</f>
+        <v>0</v>
       </c>
       <c r="E6" s="11">
-        <f>TENJI!Q6</f>
-        <v>22</v>
-      </c>
-      <c r="F6" s="11" t="str">
-        <f>TENJI!S6</f>
-        <v>バランス</v>
+        <f>F18</f>
+        <v>5.83</v>
+      </c>
+      <c r="F6" s="11">
+        <f>F19</f>
+        <v>7.11</v>
       </c>
       <c r="G6" s="11">
-        <f>TENJI!R6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <f>TENJI!T6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <f>TENJI!U6</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="11">
-        <f>TENJI!V6</f>
-        <v>23</v>
-      </c>
-      <c r="K6" s="68">
-        <f>KIMARITE!C11</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="68">
-        <f>KIMARITE!D11</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="68">
-        <f>KIMARITE!E11</f>
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="N6" s="68">
-        <f>KIMARITE!F11</f>
-        <v>0.105</v>
-      </c>
-      <c r="O6" s="68">
-        <f>KIMARITE!G11</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="68">
-        <f>KIMARITE!H11</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="68">
-        <f>KIMARITE!I11</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="68">
-        <f>KIMARITE!J11</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="68">
-        <f>(KIMARITE!L10+KIMARITE!M10+KIMARITE!N10)*(1+(E6/100))</f>
-        <v>0.16958000000000001</v>
-      </c>
-      <c r="T6" s="90" t="str">
-        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L10&gt;0.12), "★5差し", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="U6" s="90" t="str">
-        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M10&gt;0.12), "🔥5まくり", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="V6" s="90" t="str">
-        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N10&gt;0.12), "✨5まくり差し", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="W6" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="X6" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>攻め型</v>
-      </c>
-      <c r="Y6" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z6" s="11">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AA6" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="14.25" thickBot="1">
+        <f>B6-MASTER!$E$3</f>
+        <v>0.14621951219513019</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="I6" s="102" t="s">
+        <v>422</v>
+      </c>
+      <c r="J6" s="102" t="s">
+        <v>428</v>
+      </c>
+      <c r="K6" s="102" t="s">
+        <v>434</v>
+      </c>
+      <c r="L6" s="102" t="s">
+        <v>440</v>
+      </c>
+      <c r="M6" s="102" t="s">
+        <v>446</v>
+      </c>
+      <c r="N6" s="102" t="s">
+        <v>452</v>
+      </c>
+      <c r="O6" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="P6" s="102" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q6" s="102" t="s">
+        <v>464</v>
+      </c>
+      <c r="R6" s="113" t="s">
+        <v>470</v>
+      </c>
+      <c r="S6" s="104" t="s">
+        <v>476</v>
+      </c>
+      <c r="T6" s="102" t="s">
+        <v>482</v>
+      </c>
+      <c r="U6" s="104" t="s">
+        <v>488</v>
+      </c>
+      <c r="V6" s="111" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="257.25" thickBot="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="26">
+        <f>G15</f>
+        <v>6.9</v>
+      </c>
+      <c r="C7" s="26">
+        <f>VALUE(SUBSTITUTE(G16, "F", "-0"))</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D7" s="26">
+        <f>G17</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <f>G18</f>
+        <v>5.73</v>
+      </c>
+      <c r="F7" s="26">
+        <f>G19</f>
+        <v>7.13</v>
+      </c>
+      <c r="G7" s="26">
+        <f>B7-MASTER!$E$3</f>
+        <v>0.12621951219513061</v>
+      </c>
+      <c r="H7" s="103" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" s="103" t="s">
+        <v>423</v>
+      </c>
+      <c r="J7" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="K7" s="103" t="s">
+        <v>435</v>
+      </c>
+      <c r="L7" s="103" t="s">
+        <v>441</v>
+      </c>
+      <c r="M7" s="103" t="s">
+        <v>447</v>
+      </c>
+      <c r="N7" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="O7" s="103" t="s">
+        <v>302</v>
+      </c>
+      <c r="P7" s="103" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q7" s="103" t="s">
+        <v>465</v>
+      </c>
+      <c r="R7" s="114" t="s">
+        <v>471</v>
+      </c>
+      <c r="S7" s="105" t="s">
+        <v>477</v>
+      </c>
+      <c r="T7" s="103" t="s">
+        <v>483</v>
+      </c>
+      <c r="U7" s="105" t="s">
+        <v>489</v>
+      </c>
+      <c r="V7" s="112" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="14.25" thickBot="1">
+      <c r="I8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="70">
+        <f>AVERAGE(D$2:D$7)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="71">
+        <f t="shared" ref="K8:L8" si="0">AVERAGE(E$2:E$7)</f>
+        <v>5.753333333333333</v>
+      </c>
+      <c r="L8" s="72">
+        <f t="shared" si="0"/>
+        <v>7.1116666666666672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="14.25" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="69">
-        <f>G12</f>
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="D7" s="69">
-        <f>G14</f>
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="E7" s="26">
-        <f>TENJI!Q7</f>
-        <v>21</v>
-      </c>
-      <c r="F7" s="26" t="str">
-        <f>TENJI!S7</f>
-        <v>バランス</v>
-      </c>
-      <c r="G7" s="26">
-        <f>TENJI!R7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="26">
-        <f>TENJI!T7</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="26">
-        <f>TENJI!U7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="26">
-        <f>TENJI!V7</f>
-        <v>21</v>
-      </c>
-      <c r="K7" s="69">
-        <f>KIMARITE!C13</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="69">
-        <f>KIMARITE!D13</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="69">
-        <f>KIMARITE!E13</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="69">
-        <f>KIMARITE!F13</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="69">
-        <f>KIMARITE!G13</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="69">
-        <f>KIMARITE!H13</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="69">
-        <f>KIMARITE!I13</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="69">
-        <f>KIMARITE!J13</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="69">
-        <f>(KIMARITE!L12+KIMARITE!M12+KIMARITE!N12)*(1+(E7/100))</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="91" t="str">
-        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L12&gt;0.12), "★6差し", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="U7" s="91" t="str">
-        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M12&gt;0.12), "🔥6まくり", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="V7" s="91" t="str">
-        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N12&gt;0.12), "✨6まくり差し", "-")</f>
-        <v>-</v>
-      </c>
-      <c r="W7" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="X7" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>無色</v>
-      </c>
-      <c r="Y7" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="26">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AA7" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="14.25" thickBot="1">
-      <c r="A10" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" ht="18" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="66">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="C12" s="66">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="D12" s="66">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="E12" s="66">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="F12" s="66">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="G12" s="66">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1">
-        <v>-32</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-21</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-14</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-21</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-19</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-22</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:27" ht="18" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="66">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="C14" s="66">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="D14" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="E14" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="66">
-        <v>0.6</v>
-      </c>
-      <c r="G14" s="66">
-        <v>0.66700000000000004</v>
-      </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:22">
+      <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="B15" s="1">
-        <v>-14</v>
+        <v>6.85</v>
       </c>
       <c r="C15" s="1">
-        <v>-13</v>
+        <v>6.96</v>
       </c>
       <c r="D15" s="1">
-        <v>-4</v>
+        <v>6.98</v>
       </c>
       <c r="E15" s="1">
-        <v>-10</v>
+        <v>6.93</v>
       </c>
       <c r="F15" s="1">
-        <v>-10</v>
+        <v>6.92</v>
       </c>
       <c r="G15" s="1">
-        <v>-9</v>
+        <v>6.9</v>
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+    <row r="16" spans="1:22">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.63</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.73</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.83</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5.73</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7.11</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CA8FC-645F-4FB7-8703-A2965AF3146F}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD5242-E3F0-4618-8B78-1DBA7A3105B0}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="F9" sqref="F9:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="40.5">
-      <c r="A1" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="11">
-        <f>INDEX(FORECAST!A2:A7, MATCH(MAX(FORECAST!Z2:Z7), FORECAST!Z2:Z7, 0))</f>
-        <v>2</v>
-      </c>
-      <c r="C2" s="11" t="str" cm="1">
-        <f t="array" ref="C2">_xlfn.LET(
-   _xlpm.head, B2,
-   _xlpm.nums, _xlfn._xlws.FILTER(FORECAST!A2:A7, FORECAST!A2:A7&lt;&gt;_xlpm.head),
-   _xlpm.scores, _xlfn._xlws.FILTER(FORECAST!Z2:Z7, FORECAST!A2:A7&lt;&gt;_xlpm.head),
-   _xlpm.sorted, _xlfn.TAKE(_xlfn.SORTBY(_xlpm.nums, _xlpm.scores, -1), 3),
-   _xlfn.TEXTJOIN("・", TRUE, _xlpm.sorted &amp; "")
-)</f>
-        <v>4・3・5</v>
-      </c>
-      <c r="D2" s="11" t="str" cm="1">
-        <f t="array" ref="D2">_xlfn.TEXTJOIN("・", TRUE,
-   IF(
-      (FORECAST!$AA$2:$AA$7=1) *
-      ISERROR(MATCH(FORECAST!$A$2:$A$7, --_xlfn.TEXTSPLIT(C2,"・"), 0)) *
-      (FORECAST!$A$2:$A$7&lt;&gt;B2),
-      FORECAST!$A$2:$A$7,
-      ""
-   )
-)</f>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" t="str">
+        <f>CHAR(64+ROW(A1))&amp;"列："</f>
+        <v>A列：</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B7" si="0">CHAR(64+ROW(A2))&amp;"列："</f>
+        <v>B列：</v>
+      </c>
+      <c r="C3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>C列：</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="str">
-        <f>_xlfn.TEXTJOIN("",,_xlfn.TEXTSPLIT(C2,"・"))</f>
-        <v>435</v>
-      </c>
-      <c r="F2" s="11" t="str">
-        <f>IF(D2="", "", _xlfn.TEXTJOIN("",,_xlfn.TEXTSPLIT(D2,"・")))</f>
-        <v>6</v>
-      </c>
-      <c r="G2" s="11" t="str" cm="1">
-        <f t="array" ref="G2">_xlfn.TEXTJOIN("・", TRUE,
-   _xlfn.LET(
-      _xlpm.mates, _xlfn.TEXTSPLIT(C2, "・"),
-      _xlpm.scores, _xlfn.MAP(_xlpm.mates, _xlfn.LAMBDA(_xlpm.x,
-         INDEX(FORECAST!Z2:Z7, MATCH(VALUE(_xlpm.x), VALUE(FORECAST!A2:A7), 0))
-      )),
-      _xlpm.scores
-   )
-)</f>
-        <v>29・26・24</v>
-      </c>
-      <c r="H2" s="13" t="str" cm="1">
-        <f t="array" ref="H2">IF(
-  B2="",
-  "",
-  _xlfn.LET(
-    _xlpm.head, TEXT(B2,"0"),
-    _xlpm.mates, E2,
-    _xlpm.cut, F2,
-    _xlpm.used, _xlpm.head &amp; _xlpm.mates &amp; _xlpm.cut,
-    _xlpm.nums, _xlfn.SEQUENCE(6),
-    _xlpm.cond, ISNUMBER(IFERROR(FIND(TEXT(_xlpm.nums,"0"), _xlpm.used), "")),
-    _xlpm.rest, _xlfn.TEXTJOIN("",,IF(_xlpm.cond, "", TEXT(_xlpm.nums,"0"))),
-    _xlpm.head &amp; "-" &amp; _xlpm.mates &amp; "-" &amp; _xlpm.mates &amp; _xlpm.rest
-  )
-)</f>
-        <v>2-435-4351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="26" cm="1">
-        <f t="array" ref="B3">INDEX(FORECAST!$A$2:$A$7, MATCH(LARGE(IF(FORECAST!$A$2:$A$7&lt;&gt;B2, FORECAST!$Z$2:$Z$7), 1), IF(FORECAST!$A$2:$A$7&lt;&gt;B2, FORECAST!$Z$2:$Z$7), 0))</f>
-        <v>4</v>
-      </c>
-      <c r="C3" s="26" t="str" cm="1">
-        <f t="array" ref="C3">_xlfn.TEXTJOIN("・", TRUE,
-   _xlfn.LET(
-      _xlpm.head, B3,
-      _xlpm.nums, _xlfn._xlws.FILTER(FORECAST!A2:A7,
-         (FORECAST!A2:A7&lt;&gt;_xlpm.head)
-      ),
-      _xlpm.scores, _xlfn._xlws.FILTER(FORECAST!Z2:Z7,
-         (FORECAST!A2:A7&lt;&gt;_xlpm.head)
-      ),
-      _xlpm.sorted, _xlfn.TAKE(_xlfn.SORTBY(_xlpm.nums, _xlpm.scores, -1), 3),
-      _xlpm.sorted
-   )
-)</f>
-        <v>2・3・5</v>
-      </c>
-      <c r="D3" s="26" t="str" cm="1">
-        <f t="array" ref="D3">_xlfn.TEXTJOIN("・", TRUE,
-   IF(
-      (FORECAST!$AA$2:$AA$7=1) *
-      ISERROR(MATCH(FORECAST!$A$2:$A$7, --_xlfn.TEXTSPLIT(C3,"・"), 0)) *
-      (FORECAST!$A$2:$A$7&lt;&gt;B3),
-      FORECAST!$A$2:$A$7,
-      ""
-   )
-)</f>
-        <v>6</v>
-      </c>
-      <c r="E3" s="11" t="str">
-        <f>_xlfn.TEXTJOIN("",,_xlfn.TEXTSPLIT(C3,"・"))</f>
-        <v>235</v>
-      </c>
-      <c r="F3" s="11" t="str">
-        <f>IF(D3="", "", _xlfn.TEXTJOIN("",,_xlfn.TEXTSPLIT(D3,"・")))</f>
-        <v>6</v>
-      </c>
-      <c r="G3" s="26" t="str" cm="1">
-        <f t="array" ref="G3">_xlfn.TEXTJOIN("・", TRUE,
-   _xlfn.LET(
-      _xlpm.mates, _xlfn.TEXTSPLIT(C3, "・"),
-      _xlpm.scores, _xlfn.MAP(_xlpm.mates, _xlfn.LAMBDA(_xlpm.x,
-         INDEX(FORECAST!Z2:Z7, MATCH(VALUE(_xlpm.x), VALUE(FORECAST!A2:A7), 0))
-      )),
-      _xlpm.scores
-   )
-)</f>
-        <v>29・26・24</v>
-      </c>
-      <c r="H3" s="13" t="str" cm="1">
-        <f t="array" ref="H3">IF(
-  B3="",
-  "",
-  _xlfn.LET(
-    _xlpm.head, TEXT(B3,"0"),
-    _xlpm.mates, E3,
-    _xlpm.cut, F3,
-    _xlpm.used, _xlpm.head &amp; _xlpm.mates &amp; _xlpm.cut,
-    _xlpm.nums, _xlfn.SEQUENCE(6),
-    _xlpm.cond, ISNUMBER(IFERROR(FIND(TEXT(_xlpm.nums,"0"), _xlpm.used), "")),
-    _xlpm.rest, _xlfn.TEXTJOIN("",,IF(_xlpm.cond, "", TEXT(_xlpm.nums,"0"))),
-    _xlpm.head &amp; "-" &amp; _xlpm.mates &amp; "-" &amp; _xlpm.mates &amp; _xlpm.rest
-  )
-)</f>
-        <v>4-235-2351</v>
+      <c r="F4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>D列：</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>E列：</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>F列：</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="str">
+        <f>CHAR(64+ROW(A9))&amp;"列："</f>
+        <v>I列：</v>
+      </c>
+      <c r="C9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="str">
+        <f t="shared" ref="B10:B24" si="1">CHAR(64+ROW(A10))&amp;"列："</f>
+        <v>J列：</v>
+      </c>
+      <c r="C10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>K列：</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>L列：</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>M列：</v>
+      </c>
+      <c r="C13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>N列：</v>
+      </c>
+      <c r="C14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>O列：</v>
+      </c>
+      <c r="C15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>P列：</v>
+      </c>
+      <c r="C16" t="s">
+        <v>380</v>
+      </c>
+      <c r="F16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>Q列：</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>R列：</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>S列：</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>T列：</v>
+      </c>
+      <c r="C20" t="s">
+        <v>381</v>
+      </c>
+      <c r="F20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>U列：</v>
+      </c>
+      <c r="C21" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>V列：</v>
+      </c>
+      <c r="C22" t="s">
+        <v>383</v>
+      </c>
+      <c r="F22" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>W列：</v>
+      </c>
+      <c r="C23" t="s">
+        <v>384</v>
+      </c>
+      <c r="F23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>X列：</v>
+      </c>
+      <c r="C24" t="s">
+        <v>385</v>
+      </c>
+      <c r="F24" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/sample/新競艇ロジック.xlsx
+++ b/sample/新競艇ロジック.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BoatRaceLogic\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280A2D75-CF5B-4F9D-8C6B-F34B6B902C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA5B528-6E94-4686-9CE9-7F27509B3355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="330" windowWidth="21600" windowHeight="14955" tabRatio="882" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="405" windowWidth="21630" windowHeight="14955" tabRatio="882" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,11 @@
     <sheet name="TENJI (2)" sheetId="15" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="14" r:id="rId9"/>
     <sheet name="FORECAST" sheetId="7" r:id="rId10"/>
-    <sheet name="TICKET" sheetId="8" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId12"/>
-    <sheet name="MASTER" sheetId="3" r:id="rId13"/>
+    <sheet name="FORECAST (2)" sheetId="16" r:id="rId11"/>
+    <sheet name="Sheet7" sheetId="17" r:id="rId12"/>
+    <sheet name="TICKET" sheetId="8" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId14"/>
+    <sheet name="MASTER" sheetId="3" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -302,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="533">
   <si>
     <t>艇番</t>
   </si>
@@ -2628,6 +2630,227 @@
   </si>
   <si>
     <t>ST評価(1〜5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近6ヶ月3連対率</t>
+  </si>
+  <si>
+    <t>直近3ヶ月3連対率</t>
+  </si>
+  <si>
+    <t>展示総合スコア（R）</t>
+  </si>
+  <si>
+    <t>最終二次予想スコア（W）</t>
+  </si>
+  <si>
+    <t>まくり率（6ヶ月）</t>
+  </si>
+  <si>
+    <t>三次予想スコア</t>
+  </si>
+  <si>
+    <t>切る艇</t>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧Excel列</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA2～7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艇番を設定</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規Excel列</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規Excelでは展示進入コースを使用したい</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規Excelでは手入力ではなく、SQLで取得したい</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>テニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ExcelではS38～43を使用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ExcelではU38～43を使用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ExcelではT38～43を使用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ExcelではV38～43を使用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ExcelではW38～43を使用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ExcelではX38～43を使用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ExcelではB19～K31を使用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ExcelではAPI化したい</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枠番:C50～55</t>
+  </si>
+  <si>
+    <t>直近6ヶ月3連対率:D50～55</t>
+  </si>
+  <si>
+    <t>直近3ヶ月3連対率:E50～55</t>
+  </si>
+  <si>
+    <t>期待値:F50～55</t>
+  </si>
+  <si>
+    <t>展開フラグ_差し:G50～55</t>
+  </si>
+  <si>
+    <t>展開フラグ_まくり:H50～55</t>
+  </si>
+  <si>
+    <t>展開フラグ_まくり差し:I50～55</t>
+  </si>
+  <si>
+    <t>展開フラグ_逃し:J50～55</t>
+  </si>
+  <si>
+    <t>決まり手タイプ:K50～55</t>
+  </si>
+  <si>
+    <t>決まり手補正:L50～55</t>
+  </si>
+  <si>
+    <t>三次予想スコア:M50～55</t>
+  </si>
+  <si>
+    <t>切る艇:N50～55</t>
+  </si>
+  <si>
+    <t>艇番:B50～55</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3476,6 +3699,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3484,14 +3715,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3777,7 +4000,7 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5499,7 +5722,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6384,6 +6607,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76C6E1B-C0F5-486C-8108-2A9DC091F2ED}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="8" width="9" style="1"/>
+    <col min="9" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="10" customFormat="1" ht="54">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="68">
+        <f>B12</f>
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D2" s="68">
+        <f>B14</f>
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E2" s="11">
+        <f>TENJI!Q2</f>
+        <v>18</v>
+      </c>
+      <c r="F2" s="11" t="str">
+        <f>TENJI!S2</f>
+        <v>バランス</v>
+      </c>
+      <c r="G2" s="11">
+        <f>TENJI!R2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <f>TENJI!T2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <f>TENJI!U2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <f>TENJI!V2</f>
+        <v>19</v>
+      </c>
+      <c r="K2" s="68">
+        <f>KIMARITE!C3</f>
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="L2" s="68">
+        <f>KIMARITE!D3</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="68">
+        <f>KIMARITE!E3</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="68">
+        <f>KIMARITE!F3</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="68">
+        <f>KIMARITE!G3</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="68">
+        <f>KIMARITE!H3</f>
+        <v>0.156</v>
+      </c>
+      <c r="Q2" s="68">
+        <f>KIMARITE!I3</f>
+        <v>0.25</v>
+      </c>
+      <c r="R2" s="68">
+        <f>KIMARITE!J3</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="S2" s="68">
+        <f>KIMARITE!K2 * (1 + (E2/100))</f>
+        <v>0.54044000000000003</v>
+      </c>
+      <c r="T2" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="V2" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="W2" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="X2" s="11" t="str">
+        <f t="shared" ref="X2:X7" si="0">IF(AND(K2&gt;=0.2, B2=1),"逃げ型",
+IF(L2&gt;=0.05,"差し型",
+IF(OR(M2&gt;=0.05, N2&gt;=0.05),"攻め型",
+IF(OR(P2&gt;=0.2, R2&gt;=0.2),"脆い型",
+"無色"))))</f>
+        <v>逃げ型</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>IF(X2="攻め型",1,
+IF(X2="差し型",1,
+IF(X2="逃げ型",1,
+IF(X2="脆い型",-1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="11">
+        <f t="shared" ref="Z2:Z7" si="1">J2 + Y2</f>
+        <v>20</v>
+      </c>
+      <c r="AA2" s="13">
+        <f t="shared" ref="AA2:AA7" si="2">IF(
+   AND(
+      I2 = 0,
+      Z2 &lt; MEDIAN($Z$2:$Z$7),
+      OR(
+         C2 &lt; 0.5,
+         D2 &lt; 0.5
+      )
+   ),
+   1,
+   0
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="68">
+        <f>C12</f>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D3" s="68">
+        <f>C14</f>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E3" s="11">
+        <f>TENJI!Q3</f>
+        <v>28</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f>TENJI!S3</f>
+        <v>バランス</v>
+      </c>
+      <c r="G3" s="11">
+        <f>TENJI!R3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <f>TENJI!T3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <f>TENJI!U3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <f>TENJI!V3</f>
+        <v>28</v>
+      </c>
+      <c r="K3" s="68">
+        <f>KIMARITE!C5</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="68">
+        <f>KIMARITE!D5</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M3" s="68">
+        <f>KIMARITE!E5</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N3" s="68">
+        <f>KIMARITE!F5</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="68">
+        <f>KIMARITE!G5</f>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="P3" s="68">
+        <f>KIMARITE!H5</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="68">
+        <f>KIMARITE!I5</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="68">
+        <f>KIMARITE!J5</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="68">
+        <f>(KIMARITE!L4 + KIMARITE!M4 + KIMARITE!N4) * (1 + (E3/100))</f>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="T3" s="90" t="str">
+        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L4&gt;0.12), "★2差し", "-")</f>
+        <v>★2差し</v>
+      </c>
+      <c r="U3" s="90" t="str">
+        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M4&gt;0.12), "🔥2まくり", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="V3" s="90" t="str">
+        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N4&gt;0.12), "✨2まくり差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="W3" s="68" t="str">
+        <f>IF(KIMARITE!G4&gt;0.4, "🌓壁役(逃がし)", "-")</f>
+        <v>🌓壁役(逃がし)</v>
+      </c>
+      <c r="X3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>差し型</v>
+      </c>
+      <c r="Y3" s="11">
+        <f t="shared" ref="Y3:Y7" si="3">IF(X3="攻め型",1,
+IF(X3="差し型",1,
+IF(X3="逃げ型",1,
+IF(X3="脆い型",-1,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="11">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AA3" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="68">
+        <f>D12</f>
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D4" s="68">
+        <f>D14</f>
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="11">
+        <f>TENJI!Q4</f>
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f>TENJI!S4</f>
+        <v>バランス</v>
+      </c>
+      <c r="G4" s="11">
+        <f>TENJI!R4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <f>TENJI!T4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <f>TENJI!U4</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <f>TENJI!V4</f>
+        <v>25</v>
+      </c>
+      <c r="K4" s="68">
+        <f>KIMARITE!C7</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="68">
+        <f>KIMARITE!D7</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M4" s="68">
+        <f>KIMARITE!E7</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N4" s="68">
+        <f>KIMARITE!F7</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="O4" s="68">
+        <f>KIMARITE!G7</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="68">
+        <f>KIMARITE!H7</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="68">
+        <f>KIMARITE!I7</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="68">
+        <f>KIMARITE!J7</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="68">
+        <f>(KIMARITE!L6+KIMARITE!M6+KIMARITE!N6)*(1+(E4/100))</f>
+        <v>0.20708000000000001</v>
+      </c>
+      <c r="T4" s="90" t="str">
+        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L6&gt;0.12), "★3差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="U4" s="90" t="str">
+        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M6&gt;0.12), "🔥3まくり", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="V4" s="90" t="str">
+        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N6&gt;0.12), "✨3まくり差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="W4" s="68" t="str">
+        <f>IF(KIMARITE!G6&gt;0.4, "🛡️外ブロック", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="X4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>差し型</v>
+      </c>
+      <c r="Y4" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AA4" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="68">
+        <f>E12</f>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D5" s="68">
+        <f>E14</f>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="11">
+        <f>TENJI!Q5</f>
+        <v>25</v>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f>TENJI!S5</f>
+        <v>超伸び型</v>
+      </c>
+      <c r="G5" s="11">
+        <f>TENJI!R5</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="11">
+        <f>TENJI!T5</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <f>TENJI!U5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <f>TENJI!V5</f>
+        <v>29</v>
+      </c>
+      <c r="K5" s="68">
+        <f>KIMARITE!C9</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="68">
+        <f>KIMARITE!D9</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="68">
+        <f>KIMARITE!E9</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="68">
+        <f>KIMARITE!F9</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="68">
+        <f>KIMARITE!G9</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="68">
+        <f>KIMARITE!H9</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="68">
+        <f>KIMARITE!I9</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="68">
+        <f>KIMARITE!J9</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="68">
+        <f>(KIMARITE!L8+KIMARITE!M8+KIMARITE!N8)*(1+(E5/100))</f>
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="T5" s="90" t="str">
+        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L8&gt;0.12), "★4差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="U5" s="90" t="str">
+        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M8&gt;0.12), "🔥4まくり", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="V5" s="90" t="str">
+        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N8&gt;0.12), "✨4まくり差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="W5" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="X5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>無色</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AA5" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="68">
+        <f>F12</f>
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D6" s="68">
+        <f>F14</f>
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="11">
+        <f>TENJI!Q6</f>
+        <v>22</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f>TENJI!S6</f>
+        <v>バランス</v>
+      </c>
+      <c r="G6" s="11">
+        <f>TENJI!R6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <f>TENJI!T6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <f>TENJI!U6</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <f>TENJI!V6</f>
+        <v>23</v>
+      </c>
+      <c r="K6" s="68">
+        <f>KIMARITE!C11</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="68">
+        <f>KIMARITE!D11</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="68">
+        <f>KIMARITE!E11</f>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="N6" s="68">
+        <f>KIMARITE!F11</f>
+        <v>0.105</v>
+      </c>
+      <c r="O6" s="68">
+        <f>KIMARITE!G11</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="68">
+        <f>KIMARITE!H11</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="68">
+        <f>KIMARITE!I11</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="68">
+        <f>KIMARITE!J11</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="68">
+        <f>(KIMARITE!L10+KIMARITE!M10+KIMARITE!N10)*(1+(E6/100))</f>
+        <v>0.16958000000000001</v>
+      </c>
+      <c r="T6" s="90" t="str">
+        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L10&gt;0.12), "★5差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="U6" s="90" t="str">
+        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M10&gt;0.12), "🔥5まくり", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="V6" s="90" t="str">
+        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N10&gt;0.12), "✨5まくり差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="W6" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="X6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>攻め型</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AA6" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="14.25" thickBot="1">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26">
+        <v>6</v>
+      </c>
+      <c r="C7" s="69">
+        <f>G12</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D7" s="69">
+        <f>G14</f>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E7" s="26">
+        <f>TENJI!Q7</f>
+        <v>21</v>
+      </c>
+      <c r="F7" s="26" t="str">
+        <f>TENJI!S7</f>
+        <v>バランス</v>
+      </c>
+      <c r="G7" s="26">
+        <f>TENJI!R7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <f>TENJI!T7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <f>TENJI!U7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <f>TENJI!V7</f>
+        <v>21</v>
+      </c>
+      <c r="K7" s="69">
+        <f>KIMARITE!C13</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="69">
+        <f>KIMARITE!D13</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="69">
+        <f>KIMARITE!E13</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="69">
+        <f>KIMARITE!F13</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="69">
+        <f>KIMARITE!G13</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="69">
+        <f>KIMARITE!H13</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="69">
+        <f>KIMARITE!I13</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="69">
+        <f>KIMARITE!J13</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="69">
+        <f>(KIMARITE!L12+KIMARITE!M12+KIMARITE!N12)*(1+(E7/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="91" t="str">
+        <f>IF(AND(KIMARITE!$P$2&gt;0.12, KIMARITE!L12&gt;0.12), "★6差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="U7" s="91" t="str">
+        <f>IF(AND(KIMARITE!$Q$2&gt;0.12, KIMARITE!M12&gt;0.12), "🔥6まくり", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="V7" s="91" t="str">
+        <f>IF(AND(KIMARITE!$R$2&gt;0.12, KIMARITE!N12&gt;0.12), "✨6まくり差し", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="W7" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="X7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>無色</v>
+      </c>
+      <c r="Y7" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="26">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="AA7" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="14.25" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" ht="18" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="66">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="C12" s="66">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D12" s="66">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="E12" s="66">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F12" s="66">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="G12" s="66">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1">
+        <v>-32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-21</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-19</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-22</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" ht="18" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="66">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="C14" s="66">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D14" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="66">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="66">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1">
+        <v>-14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-9</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7C2B5D-F82E-449F-A05D-13583302BDAD}">
+  <dimension ref="B3:E44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="25.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>CHAR(64+ROW(A1))&amp;"2～7"</f>
+        <v>A2～7</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>CHAR(64+ROW(B2))&amp;"50～55"</f>
+        <v>B50～55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" ref="C5:C29" si="0">CHAR(64+ROW(A2))&amp;"2～7"</f>
+        <v>B2～7</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ref="D5:D7" si="1">CHAR(64+ROW(B3))&amp;"50～55"</f>
+        <v>C50～55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C2～7</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D50～55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>D2～7</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E50～55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>E2～7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F2～7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>G2～7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>H2～7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>I2～7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>J2～7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>K2～7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L2～7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>M2～7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>N2～7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O2～7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>P2～7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q2～7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>R2～7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>S2～7</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>CHAR(64+ROW(B6))&amp;"50～55"</f>
+        <v>F50～55</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>T2～7</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" ref="D23:D30" si="2">CHAR(64+ROW(B7))&amp;"50～55"</f>
+        <v>G50～55</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>U2～7</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>H50～55</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>V2～7</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>I50～55</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>W2～7</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>J50～55</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>CHAR(64+ROW(A24))&amp;"2～7"</f>
+        <v>X2～7</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>K50～55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Y2～7</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>L50～55</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Z2～7</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>M50～55</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>N50～55</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CA8FC-645F-4FB7-8703-A2965AF3146F}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H3"/>
@@ -6578,7 +8212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BA65B7-88D2-4A2E-BE43-09D894FEEFB0}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:G17"/>
@@ -6608,14 +8242,14 @@
       <c r="C2" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="108" t="s">
+      <c r="E2" s="113"/>
+      <c r="F2" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="110"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="2:7" ht="54">
       <c r="B3" s="92" t="s">
@@ -6892,7 +8526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBCA43F-CDEF-4BFF-B0EE-ACEB59431B4C}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E20"/>
@@ -12437,7 +14071,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13373,8 +15007,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="133.25" defaultRowHeight="13.5"/>
@@ -13529,7 +15163,7 @@
       <c r="Q2" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="R2" s="113" t="s">
+      <c r="R2" s="110" t="s">
         <v>466</v>
       </c>
       <c r="S2" s="104" t="s">
@@ -13541,7 +15175,7 @@
       <c r="U2" s="104" t="s">
         <v>484</v>
       </c>
-      <c r="V2" s="111" t="s">
+      <c r="V2" s="108" t="s">
         <v>490</v>
       </c>
     </row>
@@ -13603,7 +15237,7 @@
       <c r="Q3" s="102" t="s">
         <v>461</v>
       </c>
-      <c r="R3" s="113" t="s">
+      <c r="R3" s="110" t="s">
         <v>467</v>
       </c>
       <c r="S3" s="104" t="s">
@@ -13615,7 +15249,7 @@
       <c r="U3" s="104" t="s">
         <v>485</v>
       </c>
-      <c r="V3" s="111" t="s">
+      <c r="V3" s="108" t="s">
         <v>491</v>
       </c>
     </row>
@@ -13677,7 +15311,7 @@
       <c r="Q4" s="102" t="s">
         <v>462</v>
       </c>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="110" t="s">
         <v>468</v>
       </c>
       <c r="S4" s="104" t="s">
@@ -13689,7 +15323,7 @@
       <c r="U4" s="104" t="s">
         <v>486</v>
       </c>
-      <c r="V4" s="111" t="s">
+      <c r="V4" s="108" t="s">
         <v>492</v>
       </c>
     </row>
@@ -13751,7 +15385,7 @@
       <c r="Q5" s="102" t="s">
         <v>463</v>
       </c>
-      <c r="R5" s="113" t="s">
+      <c r="R5" s="110" t="s">
         <v>469</v>
       </c>
       <c r="S5" s="104" t="s">
@@ -13763,7 +15397,7 @@
       <c r="U5" s="104" t="s">
         <v>487</v>
       </c>
-      <c r="V5" s="111" t="s">
+      <c r="V5" s="108" t="s">
         <v>493</v>
       </c>
     </row>
@@ -13825,7 +15459,7 @@
       <c r="Q6" s="102" t="s">
         <v>464</v>
       </c>
-      <c r="R6" s="113" t="s">
+      <c r="R6" s="110" t="s">
         <v>470</v>
       </c>
       <c r="S6" s="104" t="s">
@@ -13837,7 +15471,7 @@
       <c r="U6" s="104" t="s">
         <v>488</v>
       </c>
-      <c r="V6" s="111" t="s">
+      <c r="V6" s="108" t="s">
         <v>494</v>
       </c>
     </row>
@@ -13899,7 +15533,7 @@
       <c r="Q7" s="103" t="s">
         <v>465</v>
       </c>
-      <c r="R7" s="114" t="s">
+      <c r="R7" s="111" t="s">
         <v>471</v>
       </c>
       <c r="S7" s="105" t="s">
@@ -13911,7 +15545,7 @@
       <c r="U7" s="105" t="s">
         <v>489</v>
       </c>
-      <c r="V7" s="112" t="s">
+      <c r="V7" s="109" t="s">
         <v>495</v>
       </c>
     </row>
@@ -14122,7 +15756,7 @@
   <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
